--- a/ltb/case/ieee14_htb.xlsx
+++ b/ltb/case/ieee14_htb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CEPD00615\Microgrid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/hlcosim/ltb/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498C98B6-30F3-41E8-A6C7-05BF2181BF58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF9A6FC-8DE8-1745-AFEA-1D08F04E240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -263,18 +263,12 @@
     <t>t</t>
   </si>
   <si>
-    <t>Toggler_1</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
     <t>Line_1</t>
   </si>
   <si>
-    <t>Toggler_2</t>
-  </si>
-  <si>
     <t>5.02</t>
   </si>
   <si>
@@ -752,24 +746,9 @@
     <t>S12</t>
   </si>
   <si>
-    <t>GENROU_1</t>
-  </si>
-  <si>
     <t>0.38</t>
   </si>
   <si>
-    <t>GENROU_2</t>
-  </si>
-  <si>
-    <t>GENROU_3</t>
-  </si>
-  <si>
-    <t>GENROU_4</t>
-  </si>
-  <si>
-    <t>GENROU_5</t>
-  </si>
-  <si>
     <t>syn</t>
   </si>
   <si>
@@ -834,16 +813,50 @@
   </si>
   <si>
     <t>0.02</t>
+  </si>
+  <si>
+    <t>GENCLS_1</t>
+  </si>
+  <si>
+    <t>GENCLS_2</t>
+  </si>
+  <si>
+    <t>GENCLS_3</t>
+  </si>
+  <si>
+    <t>GENCLS_4</t>
+  </si>
+  <si>
+    <t>GENCLS_5</t>
+  </si>
+  <si>
+    <t>Toggle_1</t>
+  </si>
+  <si>
+    <t>Toggle_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -869,8 +882,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,9 +1230,9 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1350,7 +1364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1394,7 +1408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1438,7 +1452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1482,7 +1496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1570,7 +1584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1614,7 +1628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1658,7 +1672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1702,7 +1716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1746,7 +1760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1790,7 +1804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1834,7 +1848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1890,11 +1904,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1908,236 +1924,236 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" t="s">
         <v>246</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>247</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>248</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>249</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>250</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I2" t="s">
         <v>251</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>252</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>253</v>
       </c>
-      <c r="M1" t="s">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>254</v>
       </c>
-      <c r="N1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>259</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>257</v>
-      </c>
-      <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>259</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>261</v>
-      </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" t="s">
-        <v>244</v>
+        <v>255</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" t="s">
-        <v>245</v>
+        <v>256</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N6" t="s">
         <v>14</v>
@@ -2146,7 +2162,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 A2:D6 F2:N6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2157,9 +2173,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2173,42 +2189,42 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2223,11 +2239,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2250,7 +2268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2261,19 +2279,19 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2284,22 +2302,22 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 A3:C3 A2:C2 E2:G2 E3:G3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2308,13 +2326,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2328,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -2349,18 +2367,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -2369,33 +2387,33 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
         <v>86</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>87</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="J2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -2404,33 +2422,33 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="H3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -2439,33 +2457,33 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -2474,33 +2492,33 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -2509,33 +2527,33 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
@@ -2544,33 +2562,33 @@
         <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
         <v>54</v>
@@ -2579,33 +2597,33 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
         <v>58</v>
@@ -2614,33 +2632,33 @@
         <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
@@ -2649,33 +2667,33 @@
         <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
         <v>66</v>
@@ -2684,33 +2702,33 @@
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>70</v>
@@ -2719,16 +2737,16 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -2748,9 +2766,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2764,34 +2782,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>120</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>121</v>
-      </c>
-      <c r="M1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" t="s">
-        <v>123</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
@@ -2803,27 +2821,27 @@
         <v>6</v>
       </c>
       <c r="R1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>124</v>
-      </c>
-      <c r="S1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -2832,40 +2850,40 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2879,7 +2897,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -2888,40 +2906,40 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" t="s">
         <v>127</v>
       </c>
-      <c r="J3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O3" t="s">
-        <v>133</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" t="s">
-        <v>130</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2935,7 +2953,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -2944,40 +2962,40 @@
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R4" t="s">
         <v>14</v>
       </c>
       <c r="S4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2991,7 +3009,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -3000,37 +3018,37 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O5" t="s">
         <v>20</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R5" t="s">
         <v>14</v>
       </c>
       <c r="S5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3047,9 +3065,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3063,34 +3081,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>120</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>121</v>
-      </c>
-      <c r="M1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" t="s">
-        <v>123</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
@@ -3102,16 +3120,16 @@
         <v>6</v>
       </c>
       <c r="R1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3125,7 +3143,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -3134,37 +3152,37 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
         <v>138</v>
-      </c>
-      <c r="J2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>140</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R2" t="s">
         <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T2" t="s">
         <v>14</v>
@@ -3184,9 +3202,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3200,42 +3218,42 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="J1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -3244,30 +3262,30 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>146</v>
       </c>
-      <c r="J2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>
@@ -3276,10 +3294,10 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3296,9 +3314,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3312,55 +3330,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>150</v>
       </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>151</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>152</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" t="s">
         <v>153</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>154</v>
       </c>
-      <c r="M1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>155</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>157</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>158</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>159</v>
-      </c>
-      <c r="T1" t="s">
-        <v>160</v>
-      </c>
-      <c r="U1" t="s">
-        <v>161</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -3372,18 +3390,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -3392,10 +3410,10 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -3404,51 +3422,51 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" t="s">
         <v>162</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>163</v>
       </c>
-      <c r="M2" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -3457,10 +3475,10 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -3469,51 +3487,51 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" t="s">
         <v>166</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="M3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -3522,10 +3540,10 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -3534,14 +3552,14 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" t="s">
         <v>170</v>
       </c>
-      <c r="L4" t="s">
-        <v>171</v>
-      </c>
-      <c r="M4" t="s">
-        <v>172</v>
-      </c>
       <c r="N4" t="s">
         <v>14</v>
       </c>
@@ -3567,18 +3585,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -3587,10 +3605,10 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -3599,14 +3617,14 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" t="s">
         <v>174</v>
       </c>
-      <c r="L5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M5" t="s">
-        <v>176</v>
-      </c>
       <c r="N5" t="s">
         <v>14</v>
       </c>
@@ -3632,18 +3650,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -3652,10 +3670,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -3664,14 +3682,14 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" t="s">
         <v>178</v>
       </c>
-      <c r="L6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" t="s">
-        <v>180</v>
-      </c>
       <c r="N6" t="s">
         <v>14</v>
       </c>
@@ -3697,18 +3715,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -3717,10 +3735,10 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -3729,14 +3747,14 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7" t="s">
         <v>182</v>
       </c>
-      <c r="L7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M7" t="s">
-        <v>184</v>
-      </c>
       <c r="N7" t="s">
         <v>14</v>
       </c>
@@ -3762,18 +3780,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3782,10 +3800,10 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -3794,10 +3812,10 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -3827,18 +3845,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -3847,10 +3865,10 @@
         <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I9" t="s">
         <v>39</v>
@@ -3859,10 +3877,10 @@
         <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -3892,18 +3910,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -3912,10 +3930,10 @@
         <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
@@ -3924,10 +3942,10 @@
         <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -3957,18 +3975,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
@@ -3977,10 +3995,10 @@
         <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
         <v>39</v>
@@ -3989,10 +4007,10 @@
         <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -4022,18 +4040,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
@@ -4042,10 +4060,10 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I12" t="s">
         <v>39</v>
@@ -4057,7 +4075,7 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -4087,18 +4105,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
         <v>50</v>
@@ -4107,10 +4125,10 @@
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
@@ -4119,10 +4137,10 @@
         <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -4152,18 +4170,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -4172,10 +4190,10 @@
         <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
         <v>39</v>
@@ -4184,10 +4202,10 @@
         <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -4217,18 +4235,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
         <v>54</v>
@@ -4237,10 +4255,10 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
@@ -4249,10 +4267,10 @@
         <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -4282,18 +4300,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
@@ -4302,10 +4320,10 @@
         <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
@@ -4314,51 +4332,51 @@
         <v>39</v>
       </c>
       <c r="K16" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>209</v>
       </c>
-      <c r="L16" t="s">
+      <c r="B17" t="s">
         <v>210</v>
       </c>
-      <c r="M16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" t="s">
-        <v>14</v>
-      </c>
-      <c r="T16" t="s">
-        <v>15</v>
-      </c>
-      <c r="U16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" t="s">
-        <v>212</v>
-      </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
         <v>66</v>
@@ -4367,10 +4385,10 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
@@ -4379,51 +4397,51 @@
         <v>39</v>
       </c>
       <c r="K17" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" t="s">
+        <v>212</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>213</v>
       </c>
-      <c r="L17" t="s">
+      <c r="B18" t="s">
         <v>214</v>
       </c>
-      <c r="M17" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" t="s">
-        <v>14</v>
-      </c>
-      <c r="P17" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17" t="s">
-        <v>14</v>
-      </c>
-      <c r="T17" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>216</v>
-      </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -4432,10 +4450,10 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -4447,48 +4465,48 @@
         <v>14</v>
       </c>
       <c r="L18" t="s">
+        <v>215</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" t="s">
+        <v>216</v>
+      </c>
+      <c r="U18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>217</v>
       </c>
-      <c r="M18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="B19" t="s">
         <v>218</v>
       </c>
-      <c r="U18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" t="s">
-        <v>220</v>
-      </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -4497,10 +4515,10 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -4512,48 +4530,48 @@
         <v>14</v>
       </c>
       <c r="L19" t="s">
+        <v>219</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" t="s">
+        <v>216</v>
+      </c>
+      <c r="U19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s">
         <v>221</v>
       </c>
-      <c r="M19" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19" t="s">
-        <v>15</v>
-      </c>
-      <c r="T19" t="s">
-        <v>218</v>
-      </c>
-      <c r="U19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" t="s">
-        <v>223</v>
-      </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
         <v>37</v>
@@ -4562,10 +4580,10 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I20" t="s">
         <v>39</v>
@@ -4577,48 +4595,48 @@
         <v>14</v>
       </c>
       <c r="L20" t="s">
+        <v>222</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" t="s">
+        <v>216</v>
+      </c>
+      <c r="U20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s">
         <v>224</v>
       </c>
-      <c r="M20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" t="s">
-        <v>14</v>
-      </c>
-      <c r="P20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>14</v>
-      </c>
-      <c r="R20" t="s">
-        <v>14</v>
-      </c>
-      <c r="S20" t="s">
-        <v>15</v>
-      </c>
-      <c r="T20" t="s">
-        <v>218</v>
-      </c>
-      <c r="U20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" t="s">
-        <v>226</v>
-      </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
@@ -4627,10 +4645,10 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -4642,7 +4660,7 @@
         <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -4666,7 +4684,7 @@
         <v>15</v>
       </c>
       <c r="T21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U21" t="s">
         <v>14</v>
@@ -4686,9 +4704,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4702,7 +4720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4713,10 +4731,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4727,7 +4745,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4742,11 +4760,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4760,78 +4780,78 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" t="s">
         <v>232</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>233</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>237</v>
-      </c>
-      <c r="R1" t="s">
-        <v>238</v>
-      </c>
-      <c r="S1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>126</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -4843,10 +4863,10 @@
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P2" t="s">
         <v>14</v>
@@ -4855,24 +4875,24 @@
         <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -4881,13 +4901,13 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -4899,10 +4919,10 @@
         <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P3" t="s">
         <v>14</v>
@@ -4911,24 +4931,24 @@
         <v>14</v>
       </c>
       <c r="R3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -4937,13 +4957,13 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -4955,10 +4975,10 @@
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P4" t="s">
         <v>14</v>
@@ -4967,24 +4987,24 @@
         <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
@@ -4993,13 +5013,13 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -5011,10 +5031,10 @@
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P5" t="s">
         <v>14</v>
@@ -5023,24 +5043,24 @@
         <v>14</v>
       </c>
       <c r="R5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -5049,13 +5069,13 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -5067,10 +5087,10 @@
         <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P6" t="s">
         <v>14</v>
@@ -5079,16 +5099,17 @@
         <v>14</v>
       </c>
       <c r="R6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:S6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:S1 A3:A6 A2 C2 C3:C6 E2:S2 E3:S6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>